--- a/01_基本設計書/仕様書内部レビュー結果.xlsx
+++ b/01_基本設計書/仕様書内部レビュー結果.xlsx
@@ -5,27 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\00-github\backdoor\01_基本設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\レビュー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A157B6-57FC-4453-A5E3-F12AC4AAC922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538AD69C-4DFC-4C57-9995-06449D755063}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentManualCount="2"/>
+  <calcPr calcId="191029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>No.</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -104,17 +112,6 @@
       <t>してき</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小王，我看了一下写的东西。
-我有点如下的想法。
-1，我们内部需要review一下式样。大概采用一个人讲，两个人听的形式。
-      三个人一起把式样理清楚。至少能够三个人能够统一认识。
-      内部都不能通过的话，以后开发，肯定式样不通。
-2，詹磊写的有挺多地方经不起推敲的地方。估计他自己没有搞明白。
-      我们需要帮他理思路。
-3，式样书有挺多值得推敲的小细节（有时间再弄，我不强求）。至少不能看起来像草稿纸。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -141,12 +138,180 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>実績参照</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>成形実績参照</t>
+    <rPh sb="0" eb="2">
+      <t>セイケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小王，我看了一下写的东西。
+我有点如下的想法。
+1，我们内部需要review一下式样。大概采用一个人讲，两个人听的形式。
+      三个人一起把式样理清楚。至少能够三个人能够统一认识。
+      内部都不能通过的话，以后开发，肯定式样不通。
+2，詹磊写的有挺多地方经不起推敲的地方。估计他自己没有搞明白。
+      我们需要帮他理思路。
+3，式样书有挺多值得推敲的小细节（有时间再弄，我不强求）。至少不能看起来像草稿纸。,</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>画面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>レイアウト有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>几处错误或者不妥的地方
+1，检索结果的详细按钮只需要显示英文
+2，范围检索和过去检索的内容都表示出来，不做隐藏切换
+3，有些项目没有显示全，比如客先部品番号
+4，合格率和不良率加上百分号
+5，明细画面，个体NO规范一些，居中，判定日付时间居中，幅度拉宽一些</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>英文翻译出现明显错误
+作业日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>→Work date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>キャビ→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Caviar</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>イベント仕様写得更规范一些
+1，结合条件也和where条件一样写
+2，各种</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コード</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后面把具体コード内容标注一下
+3，明细画面的检索条件写成パラメータ形式</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>明细画面的只读项目不要写成ラベル，就是テキスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>工程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コード</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要斟酌一下</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +363,12 @@
     <font>
       <sz val="11"/>
       <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -254,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -278,11 +449,105 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -617,14 +882,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="84.296875" customWidth="1"/>
+    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="84.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="24.6" customHeight="1">
@@ -665,7 +928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="126">
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="133.5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -688,14 +951,14 @@
         <v>14</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
       <c r="K2" s="9"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="33.6">
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="35.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -718,14 +981,14 @@
         <v>14</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
       <c r="K3" s="9"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="99">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -733,85 +996,143 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E4" s="6">
-        <v>43728</v>
+        <v>43774</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="33">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="10"/>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6">
+        <v>43774</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
       <c r="K5" s="9"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="66">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="10"/>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6">
+        <v>43774</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="8"/>
       <c r="K6" s="9"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
+    <row r="7" spans="1:12" s="3" customFormat="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="10"/>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6">
+        <v>43774</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
       <c r="K7" s="9"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
+    <row r="8" spans="1:12" s="3" customFormat="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="10"/>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6">
+        <v>43774</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="8"/>
       <c r="K8" s="9"/>
@@ -1219,44 +1540,89 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="L2 A2:J2 A5 A8 A11 A14 A17 A32 A20 A23 A26 A29">
-    <cfRule type="expression" dxfId="7" priority="8">
+  <conditionalFormatting sqref="L2 A2:J2 A11 A14 A17 A32 A20 A23 A26 A29">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>$B2="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>$B2="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3 A3:J3 A6 A9 A12 A15 A18 A33 A21 A24 A27 A30">
-    <cfRule type="expression" dxfId="5" priority="6">
+  <conditionalFormatting sqref="L3 A3:J3 A12 A15 A18 A33 A21 A24 A27 A30">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>$B3="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>$B3="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4 A4:J4 A7 A10 A13 A16 A19 A22 A25 A28 A31">
-    <cfRule type="expression" dxfId="3" priority="4">
+  <conditionalFormatting sqref="A10 A13 A16 A19 A22 A25 A28 A31">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>$B10="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:L33 B9:J33">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>$B9="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:K33">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>$B9="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4 A4:J4 A6 A8">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>$B4="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$B4="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L33 B5:J33">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="L5 A5:J5 A7 A9">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$B5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K33">
+  <conditionalFormatting sqref="K5">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$B5="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6 B6:J6">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$B6="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$B6="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7 B7:J7">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$B7="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$B7="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8 B8:J8">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$B8="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$B5="完了"</formula>
+      <formula>$B8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_基本設計書/仕様書内部レビュー結果.xlsx
+++ b/01_基本設計書/仕様書内部レビュー結果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\レビュー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538AD69C-4DFC-4C57-9995-06449D755063}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01B5EDA-5335-4E3F-8963-6705C0A4164C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>No.</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -304,6 +304,10 @@
       </rPr>
       <t>需要斟酌一下</t>
     </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一览里检索时间不用写</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -456,14 +460,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill>
@@ -1138,17 +1135,31 @@
       <c r="K8" s="9"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
+    <row r="9" spans="1:12" s="3" customFormat="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="10"/>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6">
+        <v>43774</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
       <c r="K9" s="9"/>
@@ -1541,88 +1552,103 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="L2 A2:J2 A11 A14 A17 A32 A20 A23 A26 A29">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="19" priority="25">
       <formula>$B2="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="18" priority="24">
       <formula>$B2="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3 A3:J3 A12 A15 A18 A33 A21 A24 A27 A30">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="17" priority="23">
       <formula>$B3="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="16" priority="22">
       <formula>$B3="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A13 A16 A19 A22 A25 A28 A31">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="15" priority="21">
       <formula>$B10="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9:L33 B9:J33">
-    <cfRule type="expression" dxfId="14" priority="15">
+  <conditionalFormatting sqref="L10:L33 B10:J33">
+    <cfRule type="expression" dxfId="14" priority="19">
+      <formula>$B10="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:K33">
+    <cfRule type="expression" dxfId="13" priority="18">
+      <formula>$B10="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4 A4:J4 A6 A8">
+    <cfRule type="expression" dxfId="12" priority="17">
+      <formula>$B4="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="expression" dxfId="11" priority="16">
+      <formula>$B4="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5 A5:J5 A7">
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>$B5="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="expression" dxfId="9" priority="13">
+      <formula>$B5="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6 B6:J6">
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>$B6="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="expression" dxfId="7" priority="11">
+      <formula>$B6="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7 B7:J7">
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>$B7="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>$B7="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8 B8:J8">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$B8="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>$B8="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$B9="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:K33">
-    <cfRule type="expression" dxfId="13" priority="14">
+  <conditionalFormatting sqref="L9 B9:J9">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$B9="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4 A4:J4 A6 A8">
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>$B4="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>$B4="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5 A5:J5 A7 A9">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>$B5="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$B5="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6 B6:J6">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$B6="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$B6="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L7 B7:J7">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$B7="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$B7="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8 B8:J8">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$B8="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
+  <conditionalFormatting sqref="K9">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$B8="完了"</formula>
+      <formula>$B9="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_基本設計書/仕様書内部レビュー結果.xlsx
+++ b/01_基本設計書/仕様書内部レビュー結果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\レビュー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01B5EDA-5335-4E3F-8963-6705C0A4164C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86656C5E-CBD8-4DC6-8AE0-930BB8DB1270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
   <si>
     <t>No.</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -308,6 +308,10 @@
   </si>
   <si>
     <t>一览里检索时间不用写</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表之间的结合再好好检查一下</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -460,7 +464,14 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1169,13 +1180,27 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="10"/>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="6">
+        <v>43774</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="8"/>
       <c r="K10" s="9"/>
@@ -1552,103 +1577,108 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="L2 A2:J2 A11 A14 A17 A32 A20 A23 A26 A29">
+    <cfRule type="expression" dxfId="20" priority="26">
+      <formula>$B2="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2">
     <cfRule type="expression" dxfId="19" priority="25">
       <formula>$B2="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2">
+  <conditionalFormatting sqref="L3 A3:J3 A12 A15 A18 A33 A21 A24 A27 A30">
     <cfRule type="expression" dxfId="18" priority="24">
-      <formula>$B2="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3 A3:J3 A12 A15 A18 A33 A21 A24 A27 A30">
+      <formula>$B3="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
     <cfRule type="expression" dxfId="17" priority="23">
       <formula>$B3="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
+  <conditionalFormatting sqref="A10 A13 A16 A19 A22 A25 A28 A31">
     <cfRule type="expression" dxfId="16" priority="22">
-      <formula>$B3="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10 A13 A16 A19 A22 A25 A28 A31">
-    <cfRule type="expression" dxfId="15" priority="21">
       <formula>$B10="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L10:L33 B10:J33">
+  <conditionalFormatting sqref="L10:L33 B11:J33 I10:J10">
+    <cfRule type="expression" dxfId="15" priority="20">
+      <formula>$B10="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:K33">
     <cfRule type="expression" dxfId="14" priority="19">
       <formula>$B10="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K33">
+  <conditionalFormatting sqref="L4 A4:J4 A6 A8">
     <cfRule type="expression" dxfId="13" priority="18">
-      <formula>$B10="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4 A4:J4 A6 A8">
+      <formula>$B4="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
     <cfRule type="expression" dxfId="12" priority="17">
       <formula>$B4="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="11" priority="16">
-      <formula>$B4="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L5 A5:J5 A7">
+    <cfRule type="expression" dxfId="11" priority="15">
+      <formula>$B5="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
     <cfRule type="expression" dxfId="10" priority="14">
       <formula>$B5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
+  <conditionalFormatting sqref="L6 B6:J6">
     <cfRule type="expression" dxfId="9" priority="13">
-      <formula>$B5="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6 B6:J6">
+      <formula>$B6="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
     <cfRule type="expression" dxfId="8" priority="12">
       <formula>$B6="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="7" priority="11">
-      <formula>$B6="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L7 B7:J7">
+    <cfRule type="expression" dxfId="7" priority="10">
+      <formula>$B7="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
     <cfRule type="expression" dxfId="6" priority="9">
       <formula>$B7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="5" priority="8">
-      <formula>$B7="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L8 B8:J8">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>$B8="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
     <cfRule type="expression" dxfId="4" priority="6">
       <formula>$B8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>$B8="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A9">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$B9="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9 B9:J9">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$B9="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9 B9:J9">
+  <conditionalFormatting sqref="K9">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$B9="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
+  <conditionalFormatting sqref="B10:H10">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$B9="完了"</formula>
+      <formula>$B10="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_基本設計書/仕様書内部レビュー結果.xlsx
+++ b/01_基本設計書/仕様書内部レビュー結果.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\レビュー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86656C5E-CBD8-4DC6-8AE0-930BB8DB1270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F54E28-1805-4C7F-81BF-19B150390439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentManualCount="2"/>
+  <calcPr calcId="181029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="35">
   <si>
     <t>No.</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -60,18 +58,6 @@
   </si>
   <si>
     <t>緊急度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回答日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回答者</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回答内容</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -313,6 +299,164 @@
   <si>
     <t>表之间的结合再好好检查一下</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全工程で試作の在庫払出可能化_伝票出力&amp;取消</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>王</t>
+    <rPh sb="0" eb="1">
+      <t>オウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レイアウトに子画面が要らない。
+K21A,B,C三つ画面に分けたから。</t>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一覧項目の項目名が不正です。
+正：払出XXX
+誤：受払XXX</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハライダシ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウケ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>バライ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「イベント仕様」に「※１.最新データ」というテーブルが記載されていましたが、具体内容は記入していない。</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>グタイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>在庫データの更新条件が不正です。
+※品名コードは必須項目ではないので、キーとして更新するという仕様を確認必要です。</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒンメイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対応日</t>
+    <rPh sb="0" eb="2">
+      <t>たいおう</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>対応者</t>
+    <rPh sb="0" eb="2">
+      <t>たいおう</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>対応内容</t>
+    <rPh sb="0" eb="2">
+      <t>たいおう</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -433,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -460,11 +604,49 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -890,7 +1072,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -921,19 +1105,19 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="133.5">
@@ -941,25 +1125,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" s="6">
         <v>43728</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
@@ -971,25 +1155,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3" s="6">
         <v>43728</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
@@ -1001,25 +1185,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" s="6">
         <v>43774</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="8"/>
@@ -1031,25 +1215,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" s="6">
         <v>43774</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>22</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
@@ -1061,25 +1245,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" s="6">
         <v>43774</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="8"/>
@@ -1091,25 +1275,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7" s="6">
         <v>43774</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
@@ -1121,25 +1305,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" s="6">
         <v>43774</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="8"/>
@@ -1151,25 +1335,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E9" s="6">
         <v>43774</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
@@ -1181,58 +1365,86 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10" s="6">
         <v>43774</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="8"/>
       <c r="K10" s="9"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="10"/>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="6">
+        <v>43777</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="I11" s="7"/>
       <c r="J11" s="8"/>
       <c r="K11" s="9"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="112.5">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="10"/>
+      <c r="B12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="6">
+        <v>43777</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="I12" s="7"/>
       <c r="J12" s="8"/>
       <c r="K12" s="9"/>
@@ -1242,13 +1454,27 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="10"/>
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="6">
+        <v>43777</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="I13" s="7"/>
       <c r="J13" s="8"/>
       <c r="K13" s="9"/>
@@ -1258,13 +1484,27 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="10"/>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="6">
+        <v>43777</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="I14" s="7"/>
       <c r="J14" s="8"/>
       <c r="K14" s="9"/>
@@ -1577,108 +1817,133 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="L2 A2:J2 A11 A14 A17 A32 A20 A23 A26 A29">
-    <cfRule type="expression" dxfId="20" priority="26">
+    <cfRule type="expression" dxfId="25" priority="31">
       <formula>$B2="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="expression" dxfId="19" priority="25">
+    <cfRule type="expression" dxfId="24" priority="30">
       <formula>$B2="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3 A3:J3 A12 A15 A18 A33 A21 A24 A27 A30">
-    <cfRule type="expression" dxfId="18" priority="24">
+    <cfRule type="expression" dxfId="23" priority="29">
       <formula>$B3="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="expression" dxfId="17" priority="23">
+    <cfRule type="expression" dxfId="22" priority="28">
       <formula>$B3="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A13 A16 A19 A22 A25 A28 A31">
-    <cfRule type="expression" dxfId="16" priority="22">
+    <cfRule type="expression" dxfId="21" priority="27">
       <formula>$B10="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L10:L33 B11:J33 I10:J10">
-    <cfRule type="expression" dxfId="15" priority="20">
+  <conditionalFormatting sqref="L10:L33 B15:J33 I10:J10 B11 D11:F11 H11:J14">
+    <cfRule type="expression" dxfId="20" priority="25">
       <formula>$B10="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:K33">
-    <cfRule type="expression" dxfId="14" priority="19">
+    <cfRule type="expression" dxfId="19" priority="24">
       <formula>$B10="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 A4:J4 A6 A8">
-    <cfRule type="expression" dxfId="13" priority="18">
+    <cfRule type="expression" dxfId="18" priority="23">
       <formula>$B4="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="12" priority="17">
+    <cfRule type="expression" dxfId="17" priority="22">
       <formula>$B4="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5 A5:J5 A7">
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>$B5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>$B5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6 B6:J6">
-    <cfRule type="expression" dxfId="9" priority="13">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>$B6="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="13" priority="17">
       <formula>$B6="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7 B7:J7">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>$B7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>$B7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8 B8:J8">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>$B8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>$B8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$B9="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9 B9:J9">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$B9="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$B9="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:H10">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$B10="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$B11="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$B9="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9 B9:J9">
+      <formula>$B11="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B14 D12:F14">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$B9="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
+      <formula>$B12="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C14">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$B9="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:H10">
+      <formula>$B12="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G14">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$B10="完了"</formula>
+      <formula>$B12="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_基本設計書/仕様書内部レビュー結果.xlsx
+++ b/01_基本設計書/仕様書内部レビュー結果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F54E28-1805-4C7F-81BF-19B150390439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420FBFB7-10C5-4E17-BFCF-2E85DDD3AECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="43">
   <si>
     <t>No.</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -457,6 +457,64 @@
       <t>たいおう</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程別集計</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>品名別集計</t>
+  </si>
+  <si>
+    <t>工程品種別集計</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機能ID</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>K21A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>K21B</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>K21C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>集計データですので、受払区分が「その他払出」と「その他払出取消」のデータを計算して表示するはず。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウケ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>バライ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>タハライダシ</t>
+    </rPh>
+    <rPh sb="26" eb="31">
+      <t>タハライダシトリケシ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -611,7 +669,35 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1070,19 +1156,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="84.25" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="84.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="24.6" customHeight="1">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="24.6" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1093,34 +1180,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="133.5">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="133.5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1130,27 +1220,28 @@
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6">
+      <c r="F2" s="6">
         <v>43728</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="35.25">
+      <c r="J2" s="7"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="35.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1160,27 +1251,28 @@
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="6">
         <v>43728</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="99">
+      <c r="J3" s="7"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="99">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1190,27 +1282,28 @@
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F4" s="6">
         <v>43774</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="33">
+      <c r="J4" s="7"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" s="3" customFormat="1" ht="33">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1220,27 +1313,28 @@
       <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="6">
         <v>43774</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="66">
+      <c r="J5" s="7"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" s="3" customFormat="1" ht="66">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1250,27 +1344,28 @@
       <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="6">
         <v>43774</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="I6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" s="3" customFormat="1">
+      <c r="J6" s="7"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1280,27 +1375,28 @@
       <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <v>43774</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" s="3" customFormat="1">
+      <c r="J7" s="7"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" s="3" customFormat="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1310,27 +1406,28 @@
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F8" s="6">
         <v>43774</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" s="3" customFormat="1">
+      <c r="J8" s="7"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" s="3" customFormat="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1340,27 +1437,28 @@
       <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="6">
         <v>43774</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
+      <c r="J9" s="7"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1370,27 +1468,28 @@
       <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F10" s="6">
         <v>43774</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
+      <c r="J10" s="7"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1400,27 +1499,28 @@
       <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="6">
         <v>43777</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="I11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="112.5">
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" s="3" customFormat="1" ht="56.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1430,27 +1530,28 @@
       <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="6">
+      <c r="F12" s="6">
         <v>43777</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="I12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1460,27 +1561,28 @@
       <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="6">
+      <c r="F13" s="6">
         <v>43777</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="I13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
+      <c r="J13" s="7"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1490,460 +1592,548 @@
       <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="6">
+      <c r="F14" s="6">
         <v>43777</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="I14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
+      <c r="J14" s="7"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
+      <c r="B15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="6">
+        <v>43777</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="6">
+        <v>43777</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
+      <c r="B17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="6">
+        <v>43777</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
+      <c r="H18" s="4"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
+      <c r="H19" s="4"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
+      <c r="H20" s="4"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
+      <c r="H21" s="4"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="6"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
+      <c r="H22" s="4"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
+      <c r="H23" s="4"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
+      <c r="H24" s="4"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
+      <c r="H25" s="4"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
+      <c r="H26" s="4"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1">
       <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
+      <c r="H27" s="4"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="6"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
+      <c r="H28" s="4"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="6"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
+      <c r="H29" s="4"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="6"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
+      <c r="H30" s="4"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="6"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
+      <c r="H31" s="4"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="6"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="4"/>
-    </row>
-    <row r="33" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
+      <c r="H32" s="4"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="6"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="L2 A2:J2 A11 A14 A17 A32 A20 A23 A26 A29">
+  <conditionalFormatting sqref="M2 A2:K2 A11 A14 A17 A32 A20 A23 A26 A29">
+    <cfRule type="expression" dxfId="29" priority="35">
+      <formula>$B2="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2">
+    <cfRule type="expression" dxfId="28" priority="34">
+      <formula>$B2="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3 A3:K3 A12 A15 A18 A33 A21 A24 A27 A30">
+    <cfRule type="expression" dxfId="27" priority="33">
+      <formula>$B3="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="expression" dxfId="26" priority="32">
+      <formula>$B3="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10 A13 A16 A19 A22 A25 A28 A31">
     <cfRule type="expression" dxfId="25" priority="31">
-      <formula>$B2="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2">
-    <cfRule type="expression" dxfId="24" priority="30">
-      <formula>$B2="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3 A3:J3 A12 A15 A18 A33 A21 A24 A27 A30">
-    <cfRule type="expression" dxfId="23" priority="29">
-      <formula>$B3="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
-    <cfRule type="expression" dxfId="22" priority="28">
-      <formula>$B3="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10 A13 A16 A19 A22 A25 A28 A31">
-    <cfRule type="expression" dxfId="21" priority="27">
       <formula>$B10="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L10:L33 B15:J33 I10:J10 B11 D11:F11 H11:J14">
-    <cfRule type="expression" dxfId="20" priority="25">
+  <conditionalFormatting sqref="M10:M33 B18:K33 J10:K10 B11 E11:G11 E15:F17 I11:K17">
+    <cfRule type="expression" dxfId="24" priority="29">
       <formula>$B10="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K33">
-    <cfRule type="expression" dxfId="19" priority="24">
+  <conditionalFormatting sqref="L10:L33">
+    <cfRule type="expression" dxfId="23" priority="28">
       <formula>$B10="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4 A4:J4 A6 A8">
-    <cfRule type="expression" dxfId="18" priority="23">
+  <conditionalFormatting sqref="M4 A4:K4 A6 A8">
+    <cfRule type="expression" dxfId="22" priority="27">
       <formula>$B4="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="17" priority="22">
+  <conditionalFormatting sqref="L4">
+    <cfRule type="expression" dxfId="21" priority="26">
       <formula>$B4="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5 A5:J5 A7">
-    <cfRule type="expression" dxfId="16" priority="20">
+  <conditionalFormatting sqref="M5 A5:K5 A7">
+    <cfRule type="expression" dxfId="20" priority="24">
       <formula>$B5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="15" priority="19">
+  <conditionalFormatting sqref="L5">
+    <cfRule type="expression" dxfId="19" priority="23">
       <formula>$B5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 B6:J6">
-    <cfRule type="expression" dxfId="14" priority="18">
+  <conditionalFormatting sqref="M6 B6:K6">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>$B6="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="13" priority="17">
+  <conditionalFormatting sqref="L6">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>$B6="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7 B7:J7">
-    <cfRule type="expression" dxfId="12" priority="15">
+  <conditionalFormatting sqref="M7 B7:K7">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>$B7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="11" priority="14">
+  <conditionalFormatting sqref="L7">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>$B7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8 B8:J8">
-    <cfRule type="expression" dxfId="10" priority="12">
+  <conditionalFormatting sqref="M8 B8:K8">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>$B8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="9" priority="11">
+  <conditionalFormatting sqref="L8">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>$B8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>$B9="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9 B9:K9">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>$B9="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$B9="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:I10">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>$B10="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:D11">
     <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$B9="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9 B9:J9">
+      <formula>$B11="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
     <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$B9="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
+      <formula>$B11="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B14 E12:G14">
     <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$B9="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:H10">
+      <formula>$B12="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:D14">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$B10="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
+      <formula>$B12="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H14">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$B11="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
+      <formula>$B12="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:B17">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$B11="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:B14 D12:F14">
+      <formula>$B15="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:D17">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$B12="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C14">
+      <formula>$B15="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:G17">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$B12="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G14">
+      <formula>$B15="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:H17">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$B12="完了"</formula>
+      <formula>$B15="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_基本設計書/仕様書内部レビュー結果.xlsx
+++ b/01_基本設計書/仕様書内部レビュー結果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420FBFB7-10C5-4E17-BFCF-2E85DDD3AECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AE19AB-E093-4CD7-9A19-61CAA45B5303}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="53">
   <si>
     <t>No.</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -516,12 +516,169 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>K16</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>K21</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>K12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>進捗管理</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>王</t>
+    <rPh sb="0" eb="1">
+      <t>オウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索条件に必須項目「作業日」を左（工程の隣）に移動したほうがいいと思います。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>トナリ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>項目一覧シートに下記の内容を修正したほうがいい
+共通ヘッダ：EXCEL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>⇒エクセル</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目一覧シートに検索条件の品種と車種の備考が調整必要です。</t>
+    <rPh sb="8" eb="10">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒンシュ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シャシュ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目一覧シートの数値列の書式は記載するほうがいいと思います。</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショシキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,6 +737,12 @@
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -669,7 +832,98 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="43">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1158,14 +1412,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="84.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1282,7 +1536,9 @@
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1313,7 +1569,9 @@
       <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1344,7 +1602,9 @@
       <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1375,7 +1635,9 @@
       <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1406,7 +1668,9 @@
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
@@ -1437,7 +1701,9 @@
       <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="E9" s="4" t="s">
         <v>15</v>
       </c>
@@ -1468,7 +1734,9 @@
       <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="E10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1499,7 +1767,9 @@
       <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="E11" s="12" t="s">
         <v>26</v>
       </c>
@@ -1530,7 +1800,9 @@
       <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="E12" s="12" t="s">
         <v>26</v>
       </c>
@@ -1561,7 +1833,9 @@
       <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="E13" s="12" t="s">
         <v>26</v>
       </c>
@@ -1592,7 +1866,9 @@
       <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="E14" s="12" t="s">
         <v>26</v>
       </c>
@@ -1716,14 +1992,30 @@
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="10"/>
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="6">
+        <v>43780</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="J18" s="7"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9"/>
@@ -1733,14 +2025,30 @@
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="10"/>
+      <c r="B19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="6">
+        <v>43780</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="J19" s="7"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9"/>
@@ -1750,14 +2058,30 @@
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="10"/>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="6">
+        <v>43780</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="J20" s="7"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9"/>
@@ -1767,14 +2091,30 @@
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="10"/>
+      <c r="B21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="6">
+        <v>43780</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="J21" s="7"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9"/>
@@ -1987,153 +2327,218 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="M2 A2:K2 A11 A14 A17 A32 A20 A23 A26 A29">
-    <cfRule type="expression" dxfId="29" priority="35">
+    <cfRule type="expression" dxfId="42" priority="48">
       <formula>$B2="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="expression" dxfId="28" priority="34">
+    <cfRule type="expression" dxfId="41" priority="47">
       <formula>$B2="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3 A3:K3 A12 A15 A18 A33 A21 A24 A27 A30">
-    <cfRule type="expression" dxfId="27" priority="33">
+    <cfRule type="expression" dxfId="40" priority="46">
       <formula>$B3="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="expression" dxfId="26" priority="32">
+    <cfRule type="expression" dxfId="39" priority="45">
       <formula>$B3="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A13 A16 A19 A22 A25 A28 A31">
-    <cfRule type="expression" dxfId="25" priority="31">
+    <cfRule type="expression" dxfId="38" priority="44">
       <formula>$B10="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M10:M33 B18:K33 J10:K10 B11 E11:G11 E15:F17 I11:K17">
-    <cfRule type="expression" dxfId="24" priority="29">
+  <conditionalFormatting sqref="M10:M33 B22:K33 J10:K10 B11 E11:G11 E15:F17 I11:K17 D18:K18 I19:K21">
+    <cfRule type="expression" dxfId="37" priority="42">
       <formula>$B10="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:L33">
-    <cfRule type="expression" dxfId="23" priority="28">
+    <cfRule type="expression" dxfId="36" priority="41">
       <formula>$B10="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4 A4:K4 A6 A8">
-    <cfRule type="expression" dxfId="22" priority="27">
+    <cfRule type="expression" dxfId="35" priority="40">
       <formula>$B4="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="expression" dxfId="21" priority="26">
+    <cfRule type="expression" dxfId="34" priority="39">
       <formula>$B4="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5 A5:K5 A7">
-    <cfRule type="expression" dxfId="20" priority="24">
+  <conditionalFormatting sqref="M5 A5:C5 A7 E5:K5">
+    <cfRule type="expression" dxfId="33" priority="37">
       <formula>$B5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="19" priority="23">
+    <cfRule type="expression" dxfId="32" priority="36">
       <formula>$B5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6 B6:K6">
-    <cfRule type="expression" dxfId="18" priority="22">
+  <conditionalFormatting sqref="M6 B6:C6 E6:K6">
+    <cfRule type="expression" dxfId="31" priority="35">
       <formula>$B6="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="17" priority="21">
+    <cfRule type="expression" dxfId="30" priority="34">
       <formula>$B6="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M7 B7:K7">
-    <cfRule type="expression" dxfId="16" priority="19">
+  <conditionalFormatting sqref="M7 B7:C7 E7:K7">
+    <cfRule type="expression" dxfId="29" priority="32">
       <formula>$B7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="expression" dxfId="15" priority="18">
+    <cfRule type="expression" dxfId="28" priority="31">
       <formula>$B7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8 B8:K8">
-    <cfRule type="expression" dxfId="14" priority="16">
+  <conditionalFormatting sqref="M8 B8:C8 E8:K8">
+    <cfRule type="expression" dxfId="27" priority="29">
       <formula>$B8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="26" priority="28">
       <formula>$B8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
+    <cfRule type="expression" dxfId="25" priority="26">
+      <formula>$B9="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9 B9:C9 E9:K9">
+    <cfRule type="expression" dxfId="24" priority="25">
+      <formula>$B9="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>$B9="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:C10 E10:I10">
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>$B10="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:D11">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>$B11="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>$B11="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B14 E12:G14">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>$B12="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C14">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>$B12="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H14">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>$B12="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:B17">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>$B15="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:D17">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>$B15="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:G17">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>$B15="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:H17">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>$B15="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D10">
     <cfRule type="expression" dxfId="12" priority="13">
-      <formula>$B9="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M9 B9:K9">
+      <formula>$B5="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D14">
     <cfRule type="expression" dxfId="11" priority="12">
-      <formula>$B9="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
+      <formula>$B12="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
     <cfRule type="expression" dxfId="10" priority="11">
-      <formula>$B9="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:I10">
+      <formula>$B18="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
     <cfRule type="expression" dxfId="9" priority="10">
-      <formula>$B10="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:D11">
+      <formula>$B18="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:H19">
     <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$B11="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+      <formula>$B19="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
     <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$B11="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:B14 E12:G14">
+      <formula>$B19="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
     <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$B12="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:D14">
+      <formula>$B19="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:H20">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$B12="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H14">
+      <formula>$B20="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$B12="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:B17">
+      <formula>$B20="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$B15="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:D17">
+      <formula>$B20="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:H21">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$B15="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:G17">
+      <formula>$B21="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$B15="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15:H17">
+      <formula>$B21="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$B15="完了"</formula>
+      <formula>$B21="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_基本設計書/仕様書内部レビュー結果.xlsx
+++ b/01_基本設計書/仕様書内部レビュー結果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AE19AB-E093-4CD7-9A19-61CAA45B5303}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B508FE-57E6-4DB5-B2B7-BA1CFE1099AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="59">
   <si>
     <t>No.</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -669,6 +669,162 @@
       <t>キサイ</t>
     </rPh>
     <rPh sb="25" eb="26">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>K12A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>進捗管理詳細</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>処理フローが不正です。
+メニュー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>⇒在庫照会と進捗管理メニュー⇒進捗管理⇒進捗管理詳細</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>イベント仕様シートの単純ミス
+コンボ押下時</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>⇒ボタン押下時</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンジュン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エクセルを出力する場合、通常は非表示の品名コードを出力項目に表示必要です。</t>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒンメイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>概要書に「複数列選択時は左から順に並び替えの優先度が高い」を記載したので、基本設計書にも記入するほうがいいと思います。</t>
+    <rPh sb="0" eb="3">
+      <t>ガイヨウショ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
       <t>オモ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -832,7 +988,133 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="61">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1412,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2124,14 +2406,30 @@
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="10"/>
+      <c r="B22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="6">
+        <v>43781</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="J22" s="7"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9"/>
@@ -2141,14 +2439,30 @@
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="10"/>
+      <c r="B23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="6">
+        <v>43781</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="J23" s="7"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9"/>
@@ -2158,14 +2472,30 @@
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="10"/>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="6">
+        <v>43781</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="J24" s="7"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9"/>
@@ -2175,14 +2505,30 @@
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="10"/>
+      <c r="B25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="6">
+        <v>43781</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="J25" s="7"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9"/>
@@ -2327,218 +2673,308 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="M2 A2:K2 A11 A14 A17 A32 A20 A23 A26 A29">
-    <cfRule type="expression" dxfId="42" priority="48">
+    <cfRule type="expression" dxfId="60" priority="66">
       <formula>$B2="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="expression" dxfId="41" priority="47">
+    <cfRule type="expression" dxfId="59" priority="65">
       <formula>$B2="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3 A3:K3 A12 A15 A18 A33 A21 A24 A27 A30">
-    <cfRule type="expression" dxfId="40" priority="46">
+    <cfRule type="expression" dxfId="58" priority="64">
       <formula>$B3="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="expression" dxfId="39" priority="45">
+    <cfRule type="expression" dxfId="57" priority="63">
       <formula>$B3="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A13 A16 A19 A22 A25 A28 A31">
-    <cfRule type="expression" dxfId="38" priority="44">
+    <cfRule type="expression" dxfId="56" priority="62">
       <formula>$B10="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M10:M33 B22:K33 J10:K10 B11 E11:G11 E15:F17 I11:K17 D18:K18 I19:K21">
-    <cfRule type="expression" dxfId="37" priority="42">
+  <conditionalFormatting sqref="M10:M33 B26:K33 J10:K10 B11 E11:G11 E15:F17 I11:K17 D18:K18 I19:K25">
+    <cfRule type="expression" dxfId="55" priority="60">
       <formula>$B10="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:L33">
-    <cfRule type="expression" dxfId="36" priority="41">
+    <cfRule type="expression" dxfId="54" priority="59">
       <formula>$B10="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4 A4:K4 A6 A8">
-    <cfRule type="expression" dxfId="35" priority="40">
+    <cfRule type="expression" dxfId="53" priority="58">
       <formula>$B4="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="expression" dxfId="34" priority="39">
+    <cfRule type="expression" dxfId="52" priority="57">
       <formula>$B4="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5 A5:C5 A7 E5:K5">
-    <cfRule type="expression" dxfId="33" priority="37">
+    <cfRule type="expression" dxfId="51" priority="55">
       <formula>$B5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="32" priority="36">
+    <cfRule type="expression" dxfId="50" priority="54">
       <formula>$B5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6 B6:C6 E6:K6">
-    <cfRule type="expression" dxfId="31" priority="35">
+    <cfRule type="expression" dxfId="49" priority="53">
       <formula>$B6="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="30" priority="34">
+    <cfRule type="expression" dxfId="48" priority="52">
       <formula>$B6="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7 B7:C7 E7:K7">
-    <cfRule type="expression" dxfId="29" priority="32">
+    <cfRule type="expression" dxfId="47" priority="50">
       <formula>$B7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="expression" dxfId="28" priority="31">
+    <cfRule type="expression" dxfId="46" priority="49">
       <formula>$B7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8 B8:C8 E8:K8">
-    <cfRule type="expression" dxfId="27" priority="29">
+    <cfRule type="expression" dxfId="45" priority="47">
       <formula>$B8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="26" priority="28">
+    <cfRule type="expression" dxfId="44" priority="46">
       <formula>$B8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
+    <cfRule type="expression" dxfId="43" priority="44">
+      <formula>$B9="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9 B9:C9 E9:K9">
+    <cfRule type="expression" dxfId="42" priority="43">
+      <formula>$B9="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
+    <cfRule type="expression" dxfId="41" priority="42">
+      <formula>$B9="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:C10 E10:I10">
+    <cfRule type="expression" dxfId="40" priority="41">
+      <formula>$B10="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:D11">
+    <cfRule type="expression" dxfId="39" priority="40">
+      <formula>$B11="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="expression" dxfId="38" priority="39">
+      <formula>$B11="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B14 E12:G14">
+    <cfRule type="expression" dxfId="37" priority="38">
+      <formula>$B12="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C14">
+    <cfRule type="expression" dxfId="36" priority="37">
+      <formula>$B12="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H14">
+    <cfRule type="expression" dxfId="35" priority="36">
+      <formula>$B12="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:B17">
+    <cfRule type="expression" dxfId="34" priority="35">
+      <formula>$B15="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:D17">
+    <cfRule type="expression" dxfId="33" priority="34">
+      <formula>$B15="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:G17">
+    <cfRule type="expression" dxfId="32" priority="33">
+      <formula>$B15="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:H17">
+    <cfRule type="expression" dxfId="31" priority="32">
+      <formula>$B15="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D10">
+    <cfRule type="expression" dxfId="30" priority="31">
+      <formula>$B5="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D14">
+    <cfRule type="expression" dxfId="29" priority="30">
+      <formula>$B12="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="expression" dxfId="28" priority="29">
+      <formula>$B18="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="27" priority="28">
+      <formula>$B18="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:H19">
+    <cfRule type="expression" dxfId="26" priority="27">
+      <formula>$B19="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
     <cfRule type="expression" dxfId="25" priority="26">
-      <formula>$B9="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M9 B9:C9 E9:K9">
+      <formula>$B19="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
     <cfRule type="expression" dxfId="24" priority="25">
-      <formula>$B9="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
+      <formula>$B19="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:H20">
     <cfRule type="expression" dxfId="23" priority="24">
-      <formula>$B9="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:C10 E10:I10">
+      <formula>$B20="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
     <cfRule type="expression" dxfId="22" priority="23">
-      <formula>$B10="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:D11">
+      <formula>$B20="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
     <cfRule type="expression" dxfId="21" priority="22">
-      <formula>$B11="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+      <formula>$B20="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:H21">
     <cfRule type="expression" dxfId="20" priority="21">
-      <formula>$B11="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:B14 E12:G14">
+      <formula>$B21="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
     <cfRule type="expression" dxfId="19" priority="20">
-      <formula>$B12="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C14">
+      <formula>$B21="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
     <cfRule type="expression" dxfId="18" priority="19">
-      <formula>$B12="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H14">
+      <formula>$B21="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:H22">
     <cfRule type="expression" dxfId="17" priority="18">
-      <formula>$B12="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:B17">
+      <formula>$B22="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
     <cfRule type="expression" dxfId="16" priority="17">
-      <formula>$B15="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:D17">
+      <formula>$B22="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
     <cfRule type="expression" dxfId="15" priority="16">
-      <formula>$B15="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:G17">
+      <formula>$B22="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:H23">
     <cfRule type="expression" dxfId="14" priority="15">
-      <formula>$B15="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15:H17">
+      <formula>$B23="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
     <cfRule type="expression" dxfId="13" priority="14">
-      <formula>$B15="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D10">
+      <formula>$B23="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
     <cfRule type="expression" dxfId="12" priority="13">
-      <formula>$B5="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D14">
+      <formula>$B23="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
     <cfRule type="expression" dxfId="11" priority="12">
-      <formula>$B12="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
+      <formula>$B23="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
     <cfRule type="expression" dxfId="10" priority="11">
-      <formula>$B18="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+      <formula>$B23="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24:H24">
     <cfRule type="expression" dxfId="9" priority="10">
-      <formula>$B18="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:H19">
+      <formula>$B24="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
     <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$B19="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
+      <formula>$B24="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
     <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$B19="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
+      <formula>$B24="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
     <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$B19="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:H20">
+      <formula>$B24="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$B20="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
+      <formula>$B24="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25:H25">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$B20="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
+      <formula>$B25="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$B20="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:H21">
+      <formula>$B25="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$B21="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
+      <formula>$B25="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$B21="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
+      <formula>$B25="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$B21="完了"</formula>
+      <formula>$B25="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_基本設計書/仕様書内部レビュー結果.xlsx
+++ b/01_基本設計書/仕様書内部レビュー結果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B508FE-57E6-4DB5-B2B7-BA1CFE1099AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB6F88B-77F8-48C8-B7AF-5EC01F7524D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="62">
   <si>
     <t>No.</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -826,6 +826,57 @@
     </rPh>
     <rPh sb="54" eb="55">
       <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>成形金型番号別不良分析</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>K17</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>「１．機能概要」シートの画面遷移図に、画面名が不正です。
+実績参照</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>⇒実績参照メニュー</t>
+    </r>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>センイズ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -988,7 +1039,28 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="64">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1695,7 +1767,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2538,14 +2610,30 @@
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="10"/>
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="6">
+        <v>43782</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="J26" s="7"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9"/>
@@ -2673,308 +2761,323 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="M2 A2:K2 A11 A14 A17 A32 A20 A23 A26 A29">
+    <cfRule type="expression" dxfId="63" priority="69">
+      <formula>$B2="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2">
+    <cfRule type="expression" dxfId="62" priority="68">
+      <formula>$B2="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3 A3:K3 A12 A15 A18 A33 A21 A24 A27 A30">
+    <cfRule type="expression" dxfId="61" priority="67">
+      <formula>$B3="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
     <cfRule type="expression" dxfId="60" priority="66">
-      <formula>$B2="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2">
+      <formula>$B3="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10 A13 A16 A19 A22 A25 A28 A31">
     <cfRule type="expression" dxfId="59" priority="65">
-      <formula>$B2="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3 A3:K3 A12 A15 A18 A33 A21 A24 A27 A30">
-    <cfRule type="expression" dxfId="58" priority="64">
-      <formula>$B3="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
-    <cfRule type="expression" dxfId="57" priority="63">
-      <formula>$B3="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10 A13 A16 A19 A22 A25 A28 A31">
-    <cfRule type="expression" dxfId="56" priority="62">
       <formula>$B10="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M10:M33 B26:K33 J10:K10 B11 E11:G11 E15:F17 I11:K17 D18:K18 I19:K25">
+  <conditionalFormatting sqref="M10:M33 B27:K33 J10:K10 B11 E11:G11 E15:F17 I11:K17 D18:K18 D26:E26 I19:K26">
+    <cfRule type="expression" dxfId="58" priority="63">
+      <formula>$B10="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10:L33">
+    <cfRule type="expression" dxfId="57" priority="62">
+      <formula>$B10="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4 A4:K4 A6 A8">
+    <cfRule type="expression" dxfId="56" priority="61">
+      <formula>$B4="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
     <cfRule type="expression" dxfId="55" priority="60">
+      <formula>$B4="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5 A5:C5 A7 E5:K5">
+    <cfRule type="expression" dxfId="54" priority="58">
+      <formula>$B5="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="expression" dxfId="53" priority="57">
+      <formula>$B5="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6 B6:C6 E6:K6">
+    <cfRule type="expression" dxfId="52" priority="56">
+      <formula>$B6="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6">
+    <cfRule type="expression" dxfId="51" priority="55">
+      <formula>$B6="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7 B7:C7 E7:K7">
+    <cfRule type="expression" dxfId="50" priority="53">
+      <formula>$B7="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7">
+    <cfRule type="expression" dxfId="49" priority="52">
+      <formula>$B7="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8 B8:C8 E8:K8">
+    <cfRule type="expression" dxfId="48" priority="50">
+      <formula>$B8="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="expression" dxfId="47" priority="49">
+      <formula>$B8="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="expression" dxfId="46" priority="47">
+      <formula>$B9="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9 B9:C9 E9:K9">
+    <cfRule type="expression" dxfId="45" priority="46">
+      <formula>$B9="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
+    <cfRule type="expression" dxfId="44" priority="45">
+      <formula>$B9="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:C10 E10:I10">
+    <cfRule type="expression" dxfId="43" priority="44">
       <formula>$B10="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L10:L33">
-    <cfRule type="expression" dxfId="54" priority="59">
-      <formula>$B10="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4 A4:K4 A6 A8">
-    <cfRule type="expression" dxfId="53" priority="58">
-      <formula>$B4="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="expression" dxfId="52" priority="57">
-      <formula>$B4="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5 A5:C5 A7 E5:K5">
-    <cfRule type="expression" dxfId="51" priority="55">
-      <formula>$B5="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="50" priority="54">
-      <formula>$B5="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6 B6:C6 E6:K6">
-    <cfRule type="expression" dxfId="49" priority="53">
-      <formula>$B6="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="48" priority="52">
-      <formula>$B6="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7 B7:C7 E7:K7">
-    <cfRule type="expression" dxfId="47" priority="50">
-      <formula>$B7="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L7">
-    <cfRule type="expression" dxfId="46" priority="49">
-      <formula>$B7="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M8 B8:C8 E8:K8">
-    <cfRule type="expression" dxfId="45" priority="47">
-      <formula>$B8="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="44" priority="46">
-      <formula>$B8="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="43" priority="44">
-      <formula>$B9="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M9 B9:C9 E9:K9">
+  <conditionalFormatting sqref="C11:D11">
     <cfRule type="expression" dxfId="42" priority="43">
-      <formula>$B9="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
+      <formula>$B11="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
     <cfRule type="expression" dxfId="41" priority="42">
-      <formula>$B9="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:C10 E10:I10">
+      <formula>$B11="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B14 E12:G14">
     <cfRule type="expression" dxfId="40" priority="41">
-      <formula>$B10="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:D11">
+      <formula>$B12="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C14">
     <cfRule type="expression" dxfId="39" priority="40">
-      <formula>$B11="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+      <formula>$B12="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H14">
     <cfRule type="expression" dxfId="38" priority="39">
-      <formula>$B11="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:B14 E12:G14">
+      <formula>$B12="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:B17">
     <cfRule type="expression" dxfId="37" priority="38">
-      <formula>$B12="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C14">
+      <formula>$B15="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:D17">
     <cfRule type="expression" dxfId="36" priority="37">
-      <formula>$B12="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H14">
+      <formula>$B15="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:G17">
     <cfRule type="expression" dxfId="35" priority="36">
-      <formula>$B12="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:B17">
+      <formula>$B15="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:H17">
     <cfRule type="expression" dxfId="34" priority="35">
       <formula>$B15="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:D17">
+  <conditionalFormatting sqref="D5:D10">
     <cfRule type="expression" dxfId="33" priority="34">
-      <formula>$B15="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:G17">
+      <formula>$B5="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D14">
     <cfRule type="expression" dxfId="32" priority="33">
-      <formula>$B15="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15:H17">
+      <formula>$B12="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
     <cfRule type="expression" dxfId="31" priority="32">
-      <formula>$B15="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D10">
+      <formula>$B18="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
     <cfRule type="expression" dxfId="30" priority="31">
-      <formula>$B5="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D14">
+      <formula>$B18="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:H19">
     <cfRule type="expression" dxfId="29" priority="30">
-      <formula>$B12="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
+      <formula>$B19="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
     <cfRule type="expression" dxfId="28" priority="29">
-      <formula>$B18="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+      <formula>$B19="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
     <cfRule type="expression" dxfId="27" priority="28">
-      <formula>$B18="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:H19">
+      <formula>$B19="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:H20">
     <cfRule type="expression" dxfId="26" priority="27">
-      <formula>$B19="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
+      <formula>$B20="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
     <cfRule type="expression" dxfId="25" priority="26">
-      <formula>$B19="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
+      <formula>$B20="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
     <cfRule type="expression" dxfId="24" priority="25">
-      <formula>$B19="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:H20">
+      <formula>$B20="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:H21">
     <cfRule type="expression" dxfId="23" priority="24">
-      <formula>$B20="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
+      <formula>$B21="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
     <cfRule type="expression" dxfId="22" priority="23">
-      <formula>$B20="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
+      <formula>$B21="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
     <cfRule type="expression" dxfId="21" priority="22">
-      <formula>$B20="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:H21">
+      <formula>$B21="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:H22">
     <cfRule type="expression" dxfId="20" priority="21">
-      <formula>$B21="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
+      <formula>$B22="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
     <cfRule type="expression" dxfId="19" priority="20">
-      <formula>$B21="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
+      <formula>$B22="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
     <cfRule type="expression" dxfId="18" priority="19">
-      <formula>$B21="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:H22">
+      <formula>$B22="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:H23">
     <cfRule type="expression" dxfId="17" priority="18">
-      <formula>$B22="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
+      <formula>$B23="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
     <cfRule type="expression" dxfId="16" priority="17">
-      <formula>$B22="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
+      <formula>$B23="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
     <cfRule type="expression" dxfId="15" priority="16">
-      <formula>$B22="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23:H23">
+      <formula>$B23="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
     <cfRule type="expression" dxfId="14" priority="15">
       <formula>$B23="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
+  <conditionalFormatting sqref="D23">
     <cfRule type="expression" dxfId="13" priority="14">
       <formula>$B23="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
+  <conditionalFormatting sqref="F24:H24">
     <cfRule type="expression" dxfId="12" priority="13">
-      <formula>$B23="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+      <formula>$B24="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
     <cfRule type="expression" dxfId="11" priority="12">
-      <formula>$B23="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
+      <formula>$B24="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
     <cfRule type="expression" dxfId="10" priority="11">
-      <formula>$B23="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24:H24">
+      <formula>$B24="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
     <cfRule type="expression" dxfId="9" priority="10">
       <formula>$B24="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
+  <conditionalFormatting sqref="D24">
     <cfRule type="expression" dxfId="8" priority="9">
       <formula>$B24="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
+  <conditionalFormatting sqref="F25:H25">
     <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$B24="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+      <formula>$B25="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
     <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$B24="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+      <formula>$B25="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$B24="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25:H25">
+      <formula>$B25="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>$B25="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
+  <conditionalFormatting sqref="D25">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>$B25="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="B26">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$B25="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+      <formula>$B26="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$B25="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+      <formula>$B26="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26:H26">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$B25="完了"</formula>
+      <formula>$B26="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
